--- a/01_要件定義/項目要件一覧.xlsx
+++ b/01_要件定義/項目要件一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>表示形式タイトル</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,116 @@
     <t>可</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇表示項目関する制限</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウジコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇取り扱い期間に関する制限</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取扱期間</t>
+    <rPh sb="0" eb="4">
+      <t>トリアツカイキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇エラー表示に関する制限</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー内容は画面上に表示すること</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,15 +295,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -209,6 +374,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676803</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="https://blog.mah-lab.com/wp-content/uploads/2014/01/Facebook.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676803" y="3505200"/>
+          <a:ext cx="4161896" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,50 +738,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -570,13 +772,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -584,21 +786,135 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>